--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.88078590401131</v>
+        <v>80.95355680861012</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.24909185880985</v>
+        <v>110.7642278443643</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.73549432002191</v>
+        <v>100.1930453974967</v>
       </c>
       <c r="AD2" t="n">
-        <v>49880.78590401131</v>
+        <v>80953.55680861011</v>
       </c>
       <c r="AE2" t="n">
-        <v>68249.09185880984</v>
+        <v>110764.2278443643</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.085297727754017e-06</v>
+        <v>8.596948121922793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>61735.49432002191</v>
+        <v>100193.0453974967</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.61649888011604</v>
+        <v>69.44546728927742</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.5192385763102</v>
+        <v>95.01835206294338</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.17073580693916</v>
+        <v>85.94993390117411</v>
       </c>
       <c r="AD3" t="n">
-        <v>48616.49888011604</v>
+        <v>69445.46728927741</v>
       </c>
       <c r="AE3" t="n">
-        <v>66519.23857631021</v>
+        <v>95018.35206294338</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.428254510687898e-06</v>
+        <v>9.176733579685222e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>60170.73580693916</v>
+        <v>85949.93390117411</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.70371049489649</v>
+        <v>66.88484618261649</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.90207712138626</v>
+        <v>91.51479729818119</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.80335256806315</v>
+        <v>82.78075348588972</v>
       </c>
       <c r="AD2" t="n">
-        <v>46703.71049489649</v>
+        <v>66884.84618261649</v>
       </c>
       <c r="AE2" t="n">
-        <v>63902.07712138626</v>
+        <v>91514.79729818119</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841102050445922e-06</v>
+        <v>1.011556800475331e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.585069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>57803.35256806316</v>
+        <v>82780.75348588971</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.76653671933234</v>
+        <v>66.94767240705232</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.98803873335673</v>
+        <v>91.60075891015167</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.88111012443508</v>
+        <v>82.85851104226163</v>
       </c>
       <c r="AD3" t="n">
-        <v>46766.53671933233</v>
+        <v>66947.67240705232</v>
       </c>
       <c r="AE3" t="n">
-        <v>63988.03873335673</v>
+        <v>91600.75891015166</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.810267016079175e-06</v>
+        <v>1.006216816952155e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>57881.11012443507</v>
+        <v>82858.51104226163</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.78367435371938</v>
+        <v>59.84381337856109</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.1702666161933</v>
+        <v>81.88094558723317</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.71401660943004</v>
+        <v>74.06634306103574</v>
       </c>
       <c r="AD2" t="n">
-        <v>41783.67435371938</v>
+        <v>59843.81337856108</v>
       </c>
       <c r="AE2" t="n">
-        <v>57170.2666161933</v>
+        <v>81880.94558723317</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.759937179894112e-06</v>
+        <v>1.279125581334555e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>51714.01660943004</v>
+        <v>74066.34306103573</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.59643523553216</v>
+        <v>62.41910459288462</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.65056602821652</v>
+        <v>85.4045726404988</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.95759972659088</v>
+        <v>77.25368009378042</v>
       </c>
       <c r="AD2" t="n">
-        <v>43596.43523553215</v>
+        <v>62419.10459288461</v>
       </c>
       <c r="AE2" t="n">
-        <v>59650.56602821652</v>
+        <v>85404.57264049879</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.479209632402479e-06</v>
+        <v>1.180371282931035e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>53957.59972659088</v>
+        <v>77253.68009378042</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.49690518944363</v>
+        <v>58.10220512358125</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.4096522773907</v>
+        <v>79.49800033843744</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.12143283207977</v>
+        <v>71.91082276229962</v>
       </c>
       <c r="AD2" t="n">
-        <v>40496.90518944363</v>
+        <v>58102.20512358125</v>
       </c>
       <c r="AE2" t="n">
-        <v>55409.6522773907</v>
+        <v>79498.00033843743</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.773389023569837e-06</v>
+        <v>1.327366009708578e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.585069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>50121.43283207977</v>
+        <v>71910.82276229962</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.43495365124262</v>
+        <v>67.78636663127452</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.90259626806979</v>
+        <v>92.74829734830971</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.70838357162495</v>
+        <v>83.89653002246256</v>
       </c>
       <c r="AD2" t="n">
-        <v>47434.95365124262</v>
+        <v>67786.36663127452</v>
       </c>
       <c r="AE2" t="n">
-        <v>64902.59626806978</v>
+        <v>92748.2973483097</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.636750945697229e-06</v>
+        <v>9.697924072242334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.689236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>58708.38357162495</v>
+        <v>83896.53002246255</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.00423891081033</v>
+        <v>67.35565189084222</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.31327335841735</v>
+        <v>92.15897443865727</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.17530481334966</v>
+        <v>83.36345126418728</v>
       </c>
       <c r="AD3" t="n">
-        <v>47004.23891081033</v>
+        <v>67355.65189084223</v>
       </c>
       <c r="AE3" t="n">
-        <v>64313.27335841735</v>
+        <v>92158.97443865727</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.799926601162213e-06</v>
+        <v>9.978664720956953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.585069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>58175.30481334966</v>
+        <v>83363.45126418727</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.75417155073372</v>
+        <v>56.98912251657913</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.39341134581716</v>
+        <v>77.975031609799</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.20218050870948</v>
+        <v>70.53320403162192</v>
       </c>
       <c r="AD2" t="n">
-        <v>39754.17155073371</v>
+        <v>56989.12251657913</v>
       </c>
       <c r="AE2" t="n">
-        <v>54393.41134581716</v>
+        <v>77975.031609799</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.714630917625198e-06</v>
+        <v>1.34605545440977e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>49202.18050870948</v>
+        <v>70533.20403162192</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.27402454815517</v>
+        <v>64.9025280367848</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.94591773576329</v>
+        <v>88.80250215735124</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.03388628871647</v>
+        <v>80.32731598656957</v>
       </c>
       <c r="AD2" t="n">
-        <v>45274.02454815517</v>
+        <v>64902.5280367848</v>
       </c>
       <c r="AE2" t="n">
-        <v>61945.91773576329</v>
+        <v>88802.50215735123</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.124325863019965e-06</v>
+        <v>1.084663618307704e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.524305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>56033.88628871647</v>
+        <v>80327.31598656958</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.12791242223774</v>
+        <v>66.13229580988876</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.1142447959568</v>
+        <v>90.48512467803633</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.09070985404281</v>
+        <v>81.84935137545656</v>
       </c>
       <c r="AD2" t="n">
-        <v>46127.91242223774</v>
+        <v>66132.29580988876</v>
       </c>
       <c r="AE2" t="n">
-        <v>63114.2447959568</v>
+        <v>90485.12467803633</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.976901530987503e-06</v>
+        <v>1.042319437175599e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>57090.70985404281</v>
+        <v>81849.35137545656</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.99078804620738</v>
+        <v>69.66563869390583</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.03135752582874</v>
+        <v>95.31960029203266</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.63397884267928</v>
+        <v>86.22243142208376</v>
       </c>
       <c r="AD2" t="n">
-        <v>48990.78804620739</v>
+        <v>69665.63869390583</v>
       </c>
       <c r="AE2" t="n">
-        <v>67031.35752582875</v>
+        <v>95319.60029203266</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.282929271785411e-06</v>
+        <v>8.980629628613799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.862847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>60633.97884267928</v>
+        <v>86222.43142208376</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.0333470588851</v>
+        <v>68.70819770658353</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.7213445276598</v>
+        <v>94.00958729386369</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.44899164644035</v>
+        <v>85.03744422584482</v>
       </c>
       <c r="AD3" t="n">
-        <v>48033.3470588851</v>
+        <v>68708.19770658354</v>
       </c>
       <c r="AE3" t="n">
-        <v>65721.34452765979</v>
+        <v>94009.58729386369</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.576489391160243e-06</v>
+        <v>9.479662375449349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.663194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>59448.99164644035</v>
+        <v>85037.44422584483</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.13474209552857</v>
+        <v>63.18044261724408</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.38710122248582</v>
+        <v>86.44626891329</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.62384103565299</v>
+        <v>78.19595833632667</v>
       </c>
       <c r="AD2" t="n">
-        <v>44134.74209552856</v>
+        <v>63180.44261724408</v>
       </c>
       <c r="AE2" t="n">
-        <v>60387.10122248583</v>
+        <v>86446.26891329</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.37406587082818e-06</v>
+        <v>1.149394912368417e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>54623.84103565299</v>
+        <v>78195.95833632667</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.47307592128929</v>
+        <v>60.80592471964934</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.11353625535499</v>
+        <v>83.19734876946617</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.56726191801592</v>
+        <v>75.2571105711403</v>
       </c>
       <c r="AD2" t="n">
-        <v>42473.0759212893</v>
+        <v>60805.92471964934</v>
       </c>
       <c r="AE2" t="n">
-        <v>58113.53625535499</v>
+        <v>83197.34876946617</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.640140975215409e-06</v>
+        <v>1.238838058691066e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.463541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>52567.26191801592</v>
+        <v>75257.11057114031</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.1752021861478</v>
+        <v>59.10884747913628</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.33772815262841</v>
+        <v>80.87533281923358</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.96093444835023</v>
+        <v>73.1567045642273</v>
       </c>
       <c r="AD2" t="n">
-        <v>41175.2021861478</v>
+        <v>59108.84747913628</v>
       </c>
       <c r="AE2" t="n">
-        <v>56337.72815262841</v>
+        <v>80875.33281923358</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776049062095397e-06</v>
+        <v>1.303059362675501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>50960.93444835023</v>
+        <v>73156.7045642273</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.020758903645</v>
+        <v>64.0562774448123</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.3899238061928</v>
+        <v>87.6446247634738</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.29446441146028</v>
+        <v>79.27994478607232</v>
       </c>
       <c r="AD2" t="n">
-        <v>39020.75890364499</v>
+        <v>64056.27744481229</v>
       </c>
       <c r="AE2" t="n">
-        <v>53389.9238061928</v>
+        <v>87644.6247634738</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.443277283502006e-06</v>
+        <v>1.328989935230321e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.967013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>48294.46441146029</v>
+        <v>79279.94478607232</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.70761458105485</v>
+        <v>65.52806652142935</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.53917474741856</v>
+        <v>89.65839150885172</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.57052368382099</v>
+        <v>81.10152045961138</v>
       </c>
       <c r="AD2" t="n">
-        <v>45707.61458105485</v>
+        <v>65528.06652142935</v>
       </c>
       <c r="AE2" t="n">
-        <v>62539.17474741855</v>
+        <v>89658.39150885172</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.050182594649125e-06</v>
+        <v>1.062993215255241e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.532986111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>56570.52368382099</v>
+        <v>81101.52045961138</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.33534298057298</v>
+        <v>68.85115652540381</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.13454867083273</v>
+        <v>94.20518985667147</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.82276016612465</v>
+        <v>85.21437875458822</v>
       </c>
       <c r="AD2" t="n">
-        <v>48335.34298057298</v>
+        <v>68851.15652540381</v>
       </c>
       <c r="AE2" t="n">
-        <v>66134.54867083272</v>
+        <v>94205.18985667147</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.409881293205809e-06</v>
+        <v>9.250294121251129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.810763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>59822.76016612464</v>
+        <v>85214.37875458822</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.7507341395335</v>
+        <v>68.26654768436434</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.33466106340109</v>
+        <v>93.40530224923982</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.09921270929672</v>
+        <v>84.49083129776031</v>
       </c>
       <c r="AD3" t="n">
-        <v>47750.7341395335</v>
+        <v>68266.54768436434</v>
       </c>
       <c r="AE3" t="n">
-        <v>65334.66106340108</v>
+        <v>93405.30224923983</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.601118874572489e-06</v>
+        <v>9.577289073413969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.680555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>59099.21270929672</v>
+        <v>84490.83129776031</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.56193948470712</v>
+        <v>62.92313727277303</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.70809977074971</v>
+        <v>86.09421238947422</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.62788814352238</v>
+        <v>77.87750159302934</v>
       </c>
       <c r="AD2" t="n">
-        <v>46561.93948470712</v>
+        <v>62923.13727277303</v>
       </c>
       <c r="AE2" t="n">
-        <v>63708.09977074972</v>
+        <v>86094.21238947423</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.747426891836943e-06</v>
+        <v>1.231938303921065e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>57627.88814352237</v>
+        <v>77877.50159302933</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.09631614855064</v>
+        <v>61.68221189811698</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.96628102971182</v>
+        <v>84.3963235461069</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.33862192794321</v>
+        <v>76.34165687787048</v>
       </c>
       <c r="AD2" t="n">
-        <v>43096.31614855064</v>
+        <v>61682.21189811698</v>
       </c>
       <c r="AE2" t="n">
-        <v>58966.28102971181</v>
+        <v>84396.3235461069</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.535177397445919e-06</v>
+        <v>1.204062345973082e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>53338.62192794321</v>
+        <v>76341.65687787048</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.68522461883247</v>
+        <v>63.94216090004476</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.1402956964448</v>
+        <v>87.4884854724563</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.30515168613264</v>
+        <v>79.13870720984657</v>
       </c>
       <c r="AD2" t="n">
-        <v>44685.22461883247</v>
+        <v>63942.16090004476</v>
       </c>
       <c r="AE2" t="n">
-        <v>61140.29569644479</v>
+        <v>87488.4854724563</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.254166151948352e-06</v>
+        <v>1.117261141216353e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.489583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>55305.15168613264</v>
+        <v>79138.70720984657</v>
       </c>
     </row>
   </sheetData>
